--- a/CarAmelia 2/Assets/Scripts/Files/carte_1.xlsx
+++ b/CarAmelia 2/Assets/Scripts/Files/carte_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5eme semestre\Modélisation et Systèmes Complexes\SMA\Projet\projet-unity-caramelia\CarAmelia 2\Assets\Scripts\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\projet-unity-caramelia\CarAmelia 2\Assets\Scripts\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -698,10 +698,10 @@
   <dimension ref="A1:DO119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CH15" sqref="CH15"/>
+      <selection pane="bottomRight" activeCell="BP73" sqref="BP73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26401,10 +26401,10 @@
         <v>0</v>
       </c>
       <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
         <v>1</v>
-      </c>
-      <c r="BP72">
-        <v>0</v>
       </c>
       <c r="BQ72">
         <v>0</v>
@@ -31086,19 +31086,19 @@
         <v>0</v>
       </c>
       <c r="BU85">
+        <v>0</v>
+      </c>
+      <c r="BV85">
+        <v>0</v>
+      </c>
+      <c r="BW85">
+        <v>0</v>
+      </c>
+      <c r="BX85">
+        <v>0</v>
+      </c>
+      <c r="BY85">
         <v>1</v>
-      </c>
-      <c r="BV85">
-        <v>0</v>
-      </c>
-      <c r="BW85">
-        <v>0</v>
-      </c>
-      <c r="BX85">
-        <v>0</v>
-      </c>
-      <c r="BY85">
-        <v>0</v>
       </c>
       <c r="BZ85">
         <v>0</v>
@@ -41643,343 +41643,343 @@
         <v>117</v>
       </c>
       <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
+      <c r="AS115">
+        <v>0</v>
+      </c>
+      <c r="AT115">
+        <v>0</v>
+      </c>
+      <c r="AU115">
+        <v>0</v>
+      </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
+      <c r="AW115">
+        <v>0</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>0</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+      <c r="BQ115">
+        <v>0</v>
+      </c>
+      <c r="BR115">
+        <v>0</v>
+      </c>
+      <c r="BS115">
+        <v>0</v>
+      </c>
+      <c r="BT115">
+        <v>0</v>
+      </c>
+      <c r="BU115">
+        <v>0</v>
+      </c>
+      <c r="BV115">
+        <v>0</v>
+      </c>
+      <c r="BW115">
+        <v>0</v>
+      </c>
+      <c r="BX115">
+        <v>0</v>
+      </c>
+      <c r="BY115">
+        <v>0</v>
+      </c>
+      <c r="BZ115">
+        <v>0</v>
+      </c>
+      <c r="CA115">
+        <v>0</v>
+      </c>
+      <c r="CB115">
+        <v>0</v>
+      </c>
+      <c r="CC115">
+        <v>0</v>
+      </c>
+      <c r="CD115">
+        <v>0</v>
+      </c>
+      <c r="CE115">
+        <v>0</v>
+      </c>
+      <c r="CF115">
+        <v>0</v>
+      </c>
+      <c r="CG115">
+        <v>0</v>
+      </c>
+      <c r="CH115">
+        <v>0</v>
+      </c>
+      <c r="CI115">
+        <v>0</v>
+      </c>
+      <c r="CJ115">
+        <v>0</v>
+      </c>
+      <c r="CK115">
+        <v>0</v>
+      </c>
+      <c r="CL115">
+        <v>0</v>
+      </c>
+      <c r="CM115">
+        <v>0</v>
+      </c>
+      <c r="CN115">
+        <v>0</v>
+      </c>
+      <c r="CO115">
+        <v>0</v>
+      </c>
+      <c r="CP115">
+        <v>0</v>
+      </c>
+      <c r="CQ115">
+        <v>0</v>
+      </c>
+      <c r="CR115">
+        <v>0</v>
+      </c>
+      <c r="CS115">
+        <v>0</v>
+      </c>
+      <c r="CT115">
+        <v>0</v>
+      </c>
+      <c r="CU115">
+        <v>0</v>
+      </c>
+      <c r="CV115">
+        <v>0</v>
+      </c>
+      <c r="CW115">
+        <v>0</v>
+      </c>
+      <c r="CX115">
+        <v>0</v>
+      </c>
+      <c r="CY115">
+        <v>0</v>
+      </c>
+      <c r="CZ115">
+        <v>0</v>
+      </c>
+      <c r="DA115">
+        <v>0</v>
+      </c>
+      <c r="DB115">
+        <v>0</v>
+      </c>
+      <c r="DC115">
+        <v>0</v>
+      </c>
+      <c r="DD115">
+        <v>0</v>
+      </c>
+      <c r="DE115">
+        <v>0</v>
+      </c>
+      <c r="DF115">
+        <v>0</v>
+      </c>
+      <c r="DG115">
+        <v>0</v>
+      </c>
+      <c r="DH115">
+        <v>0</v>
+      </c>
+      <c r="DI115">
+        <v>0</v>
+      </c>
+      <c r="DJ115">
         <v>1</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <v>0</v>
-      </c>
-      <c r="U115">
-        <v>0</v>
-      </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
-        <v>0</v>
-      </c>
-      <c r="AB115">
-        <v>0</v>
-      </c>
-      <c r="AC115">
-        <v>0</v>
-      </c>
-      <c r="AD115">
-        <v>0</v>
-      </c>
-      <c r="AE115">
-        <v>0</v>
-      </c>
-      <c r="AF115">
-        <v>0</v>
-      </c>
-      <c r="AG115">
-        <v>0</v>
-      </c>
-      <c r="AH115">
-        <v>0</v>
-      </c>
-      <c r="AI115">
-        <v>0</v>
-      </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
-      <c r="AK115">
-        <v>0</v>
-      </c>
-      <c r="AL115">
-        <v>0</v>
-      </c>
-      <c r="AM115">
-        <v>0</v>
-      </c>
-      <c r="AN115">
-        <v>0</v>
-      </c>
-      <c r="AO115">
-        <v>0</v>
-      </c>
-      <c r="AP115">
-        <v>0</v>
-      </c>
-      <c r="AQ115">
-        <v>0</v>
-      </c>
-      <c r="AR115">
-        <v>0</v>
-      </c>
-      <c r="AS115">
-        <v>0</v>
-      </c>
-      <c r="AT115">
-        <v>0</v>
-      </c>
-      <c r="AU115">
-        <v>0</v>
-      </c>
-      <c r="AV115">
-        <v>0</v>
-      </c>
-      <c r="AW115">
-        <v>0</v>
-      </c>
-      <c r="AX115">
-        <v>0</v>
-      </c>
-      <c r="AY115">
-        <v>0</v>
-      </c>
-      <c r="AZ115">
-        <v>0</v>
-      </c>
-      <c r="BA115">
-        <v>0</v>
-      </c>
-      <c r="BB115">
-        <v>0</v>
-      </c>
-      <c r="BC115">
-        <v>0</v>
-      </c>
-      <c r="BD115">
-        <v>0</v>
-      </c>
-      <c r="BE115">
-        <v>0</v>
-      </c>
-      <c r="BF115">
-        <v>0</v>
-      </c>
-      <c r="BG115">
-        <v>0</v>
-      </c>
-      <c r="BH115">
-        <v>0</v>
-      </c>
-      <c r="BI115">
-        <v>0</v>
-      </c>
-      <c r="BJ115">
-        <v>0</v>
-      </c>
-      <c r="BK115">
-        <v>0</v>
-      </c>
-      <c r="BL115">
-        <v>0</v>
-      </c>
-      <c r="BM115">
-        <v>0</v>
-      </c>
-      <c r="BN115">
-        <v>0</v>
-      </c>
-      <c r="BO115">
-        <v>0</v>
-      </c>
-      <c r="BP115">
-        <v>0</v>
-      </c>
-      <c r="BQ115">
-        <v>0</v>
-      </c>
-      <c r="BR115">
-        <v>0</v>
-      </c>
-      <c r="BS115">
-        <v>0</v>
-      </c>
-      <c r="BT115">
-        <v>0</v>
-      </c>
-      <c r="BU115">
-        <v>0</v>
-      </c>
-      <c r="BV115">
-        <v>0</v>
-      </c>
-      <c r="BW115">
-        <v>0</v>
-      </c>
-      <c r="BX115">
-        <v>0</v>
-      </c>
-      <c r="BY115">
-        <v>0</v>
-      </c>
-      <c r="BZ115">
-        <v>0</v>
-      </c>
-      <c r="CA115">
-        <v>0</v>
-      </c>
-      <c r="CB115">
-        <v>0</v>
-      </c>
-      <c r="CC115">
-        <v>0</v>
-      </c>
-      <c r="CD115">
-        <v>0</v>
-      </c>
-      <c r="CE115">
-        <v>0</v>
-      </c>
-      <c r="CF115">
-        <v>0</v>
-      </c>
-      <c r="CG115">
-        <v>0</v>
-      </c>
-      <c r="CH115">
-        <v>0</v>
-      </c>
-      <c r="CI115">
-        <v>0</v>
-      </c>
-      <c r="CJ115">
-        <v>0</v>
-      </c>
-      <c r="CK115">
-        <v>0</v>
-      </c>
-      <c r="CL115">
-        <v>0</v>
-      </c>
-      <c r="CM115">
-        <v>0</v>
-      </c>
-      <c r="CN115">
-        <v>0</v>
-      </c>
-      <c r="CO115">
-        <v>0</v>
-      </c>
-      <c r="CP115">
-        <v>0</v>
-      </c>
-      <c r="CQ115">
-        <v>0</v>
-      </c>
-      <c r="CR115">
-        <v>0</v>
-      </c>
-      <c r="CS115">
-        <v>0</v>
-      </c>
-      <c r="CT115">
-        <v>0</v>
-      </c>
-      <c r="CU115">
-        <v>0</v>
-      </c>
-      <c r="CV115">
-        <v>0</v>
-      </c>
-      <c r="CW115">
-        <v>0</v>
-      </c>
-      <c r="CX115">
-        <v>0</v>
-      </c>
-      <c r="CY115">
-        <v>0</v>
-      </c>
-      <c r="CZ115">
-        <v>0</v>
-      </c>
-      <c r="DA115">
-        <v>0</v>
-      </c>
-      <c r="DB115">
-        <v>0</v>
-      </c>
-      <c r="DC115">
-        <v>0</v>
-      </c>
-      <c r="DD115">
-        <v>0</v>
-      </c>
-      <c r="DE115">
-        <v>0</v>
-      </c>
-      <c r="DF115">
-        <v>0</v>
-      </c>
-      <c r="DG115">
-        <v>0</v>
-      </c>
-      <c r="DH115">
-        <v>0</v>
-      </c>
-      <c r="DI115">
-        <v>0</v>
-      </c>
-      <c r="DJ115">
-        <v>0</v>
       </c>
       <c r="DK115">
         <v>0</v>

--- a/CarAmelia 2/Assets/Scripts/Files/carte_1.xlsx
+++ b/CarAmelia 2/Assets/Scripts/Files/carte_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\projet-unity-caramelia\CarAmelia 2\Assets\Scripts\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5eme semestre\Modélisation et Systèmes Complexes\SMA\Projet\projet-unity-caramelia\CarAmelia 2\Assets\Scripts\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -698,10 +698,10 @@
   <dimension ref="A1:DO119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BU80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BP73" sqref="BP73"/>
+      <selection pane="bottomRight" activeCell="CU102" sqref="CU102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="CU97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV97">
         <v>1</v>
@@ -36229,7 +36229,7 @@
         <v>0</v>
       </c>
       <c r="DH99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI99">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="CU101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV101">
         <v>0</v>
@@ -37267,7 +37267,7 @@
         <v>0</v>
       </c>
       <c r="CU102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV102">
         <v>1</v>
@@ -40899,7 +40899,7 @@
         <v>0</v>
       </c>
       <c r="DI112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ112">
         <v>0</v>
